--- a/project2/Data_VAR.xlsx
+++ b/project2/Data_VAR.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaume/MyProjects/StataProjects/Corporate_finance/project_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaume/MyProjects/HECProject/CorporateFinance-msc1sem-/project2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596FB93D-84DB-5D4A-9F5B-AF3ECDCAD75C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84E9131-6710-D24A-BBED-DD32400A582C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{CCE95774-ADB2-C840-B008-4251A2DFC48C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{CCE95774-ADB2-C840-B008-4251A2DFC48C}"/>
   </bookViews>
   <sheets>
-    <sheet name="analysis" sheetId="1" r:id="rId1"/>
+    <sheet name="analysis_long" sheetId="2" r:id="rId1"/>
+    <sheet name="analysis" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="9.9999999999994451E-4"/>
+  <calcPr calcId="191029" iterateDelta="9.9999999999994451E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>date</t>
   </si>
@@ -42,16 +43,7 @@
     <t>Levered Free Cash Flow</t>
   </si>
   <si>
-    <t>Cost Of Goods Sold</t>
-  </si>
-  <si>
     <t>R &amp; D Exp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Gross Profit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Other Operating Exp., Total</t>
   </si>
   <si>
     <t xml:space="preserve">  Return on Assets %</t>
@@ -60,21 +52,31 @@
     <t xml:space="preserve">  Total Revenue3</t>
   </si>
   <si>
-    <t xml:space="preserve">  Total Revenue5</t>
+    <t xml:space="preserve">  Gross Margin %</t>
   </si>
   <si>
-    <t>Total Current Taxes</t>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>ROA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Inventory Turnover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Net Income</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\)_)\ ;_(* 0_)"/>
     <numFmt numFmtId="165" formatCode="_(#,##0.0%_);_(\(#,##0.0%\)_);_(#,##0.0%_)"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0\x"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -102,8 +104,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u val="double"/>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +128,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -135,10 +156,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -150,18 +172,37 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{BE043741-5E47-FE43-AAF9-345673B9F959}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -472,11 +513,599 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6886476E-4E43-3B40-B5A8-A10ED1AEEA3E}">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A0414F-CCC3-FC4A-8519-97B0C99AA98B}">
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J11"/>
+      <selection activeCell="H1" sqref="H1:H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="23" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="10">
+        <v>148.99237500000001</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.37113000000000002</v>
+      </c>
+      <c r="D2" s="10">
+        <v>735.26400000000001</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.13137699999999999</v>
+      </c>
+      <c r="F2" s="13">
+        <v>7.2241439999999999</v>
+      </c>
+      <c r="G2" s="10">
+        <v>86.046999999999997</v>
+      </c>
+      <c r="H2" s="12">
+        <v>98.468999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <f t="shared" ref="A3:A21" si="0">A2+1</f>
+        <v>2001</v>
+      </c>
+      <c r="B3" s="10">
+        <v>31.0885</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.37915199999999999</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1369.471</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.12670600000000001</v>
+      </c>
+      <c r="F3" s="13">
+        <v>5.5889129999999998</v>
+      </c>
+      <c r="G3" s="10">
+        <v>154.75200000000001</v>
+      </c>
+      <c r="H3" s="12">
+        <v>176.92400000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <f t="shared" si="0"/>
+        <v>2002</v>
+      </c>
+      <c r="B4" s="10">
+        <v>200.18537499999999</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.30166399999999999</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1909.4469999999999</v>
+      </c>
+      <c r="E4" s="5">
+        <v>5.7682999999999998E-2</v>
+      </c>
+      <c r="F4" s="13">
+        <v>7.4302000000000001</v>
+      </c>
+      <c r="G4" s="10">
+        <v>260.27300000000002</v>
+      </c>
+      <c r="H4" s="12">
+        <v>90.799000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <f t="shared" si="0"/>
+        <v>2003</v>
+      </c>
+      <c r="B5" s="10">
+        <v>-144</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.28813800000000001</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1822.9449999999999</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2.2082000000000001E-2</v>
+      </c>
+      <c r="F5" s="13">
+        <v>6.8428089999999999</v>
+      </c>
+      <c r="G5" s="10">
+        <v>292.16199999999998</v>
+      </c>
+      <c r="H5" s="12">
+        <v>48.63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="B6" s="10">
+        <v>17.551500000000001</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.32216099999999998</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2010.0329999999999</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3.8842000000000002E-2</v>
+      </c>
+      <c r="F6" s="13">
+        <v>4.9542489999999999</v>
+      </c>
+      <c r="G6" s="10">
+        <v>348.22</v>
+      </c>
+      <c r="H6" s="12">
+        <v>88.614999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="10">
+        <v>300.56274999999999</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.38306000000000001</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2375.6869999999999</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.121199</v>
+      </c>
+      <c r="F7" s="13">
+        <v>5.1367330000000004</v>
+      </c>
+      <c r="G7" s="10">
+        <v>357.12299999999999</v>
+      </c>
+      <c r="H7" s="12">
+        <v>301.17599999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="B8" s="10">
+        <v>263.21837499999998</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.42376799999999998</v>
+      </c>
+      <c r="D8" s="10">
+        <v>3068.7710000000002</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.122423</v>
+      </c>
+      <c r="F8" s="13">
+        <v>5.8020569999999996</v>
+      </c>
+      <c r="G8" s="10">
+        <v>553.46699999999998</v>
+      </c>
+      <c r="H8" s="12">
+        <v>448.834</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <f>A8+1</f>
+        <v>2007</v>
+      </c>
+      <c r="B9" s="10">
+        <v>764.41750000000002</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.45616000000000001</v>
+      </c>
+      <c r="D9" s="10">
+        <v>4097.8599999999997</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.16276499999999999</v>
+      </c>
+      <c r="F9" s="13">
+        <v>6.2495139999999996</v>
+      </c>
+      <c r="G9" s="10">
+        <v>653.43700000000001</v>
+      </c>
+      <c r="H9" s="12">
+        <v>797.64499999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="B10" s="10">
+        <v>-109.4</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.342866</v>
+      </c>
+      <c r="D10" s="10">
+        <v>3424.8589999999999</v>
+      </c>
+      <c r="E10" s="5">
+        <v>-7.7130000000000002E-3</v>
+      </c>
+      <c r="F10" s="13">
+        <v>5.0216479999999999</v>
+      </c>
+      <c r="G10" s="10">
+        <v>855.87900000000002</v>
+      </c>
+      <c r="H10" s="12">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="B11" s="10">
+        <v>551.37599999999998</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.357238</v>
+      </c>
+      <c r="D11" s="10">
+        <v>3326.4450000000002</v>
+      </c>
+      <c r="E11" s="5">
+        <v>7.4409999999999997E-3</v>
+      </c>
+      <c r="F11" s="13">
+        <v>4.9236389999999997</v>
+      </c>
+      <c r="G11" s="10">
+        <v>818.39499999999998</v>
+      </c>
+      <c r="H11" s="12">
+        <v>-68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="B12" s="10">
+        <v>494.17200000000003</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.39767599999999997</v>
+      </c>
+      <c r="D12" s="10">
+        <v>3543.3090000000002</v>
+      </c>
+      <c r="E12" s="5">
+        <v>3.2705999999999999E-2</v>
+      </c>
+      <c r="F12" s="13">
+        <v>6.3123990000000001</v>
+      </c>
+      <c r="G12" s="10">
+        <v>848.83</v>
+      </c>
+      <c r="H12" s="12">
+        <v>253.14599999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="B13" s="10">
+        <v>552.96124999999995</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.51439500000000005</v>
+      </c>
+      <c r="D13" s="10">
+        <v>3997.93</v>
+      </c>
+      <c r="E13" s="5">
+        <v>8.0647999999999997E-2</v>
+      </c>
+      <c r="F13" s="13">
+        <v>5.6615650000000004</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1002.605</v>
+      </c>
+      <c r="H13" s="12">
+        <v>581.09</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="B14" s="10">
+        <v>359.28812499999998</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.52015400000000001</v>
+      </c>
+      <c r="D14" s="10">
+        <v>4280.1589999999997</v>
+      </c>
+      <c r="E14" s="5">
+        <v>6.8044999999999994E-2</v>
+      </c>
+      <c r="F14" s="13">
+        <v>5.4567319999999997</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1147.2819999999999</v>
+      </c>
+      <c r="H14" s="12">
+        <v>562.53599999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="B15" s="10">
+        <v>492.49700000000001</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.54915199999999997</v>
+      </c>
+      <c r="D15" s="10">
+        <v>4130</v>
+      </c>
+      <c r="E15" s="5">
+        <v>4.5377000000000001E-2</v>
+      </c>
+      <c r="F15" s="13">
+        <v>4.6536499999999998</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1336</v>
+      </c>
+      <c r="H15" s="12">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B16" s="10">
+        <v>543.03</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.55510400000000004</v>
+      </c>
+      <c r="D16" s="10">
+        <v>4682</v>
+      </c>
+      <c r="E16" s="5">
+        <v>6.5647999999999998E-2</v>
+      </c>
+      <c r="F16" s="13">
+        <v>4.7842979999999997</v>
+      </c>
+      <c r="G16" s="10">
+        <v>1360</v>
+      </c>
+      <c r="H16" s="12">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="B17" s="10">
+        <v>975.375</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.56107700000000005</v>
+      </c>
+      <c r="D17" s="10">
+        <v>5010</v>
+      </c>
+      <c r="E17" s="5">
+        <v>7.5319999999999998E-2</v>
+      </c>
+      <c r="F17" s="13">
+        <v>4.8812430000000004</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1331</v>
+      </c>
+      <c r="H17" s="12">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="B18" s="10">
+        <v>764.375</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.58798799999999996</v>
+      </c>
+      <c r="D18" s="10">
+        <v>6910</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.14068</v>
+      </c>
+      <c r="F18" s="13">
+        <v>4.6980190000000004</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1463</v>
+      </c>
+      <c r="H18" s="12">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="B19" s="10">
+        <v>1706.125</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.59934100000000001</v>
+      </c>
+      <c r="D19" s="10">
+        <v>9714</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.190328</v>
+      </c>
+      <c r="F19" s="13">
+        <v>4.8955970000000004</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1797</v>
+      </c>
+      <c r="H19" s="12">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="B20" s="10">
+        <v>1763.25</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.61206799999999995</v>
+      </c>
+      <c r="D20" s="10">
+        <v>11716</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.19381999999999999</v>
+      </c>
+      <c r="F20" s="13">
+        <v>3.833825</v>
+      </c>
+      <c r="G20" s="10">
+        <v>2376</v>
+      </c>
+      <c r="H20" s="12">
+        <v>4141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="B21" s="10">
+        <v>3188.25</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.61989300000000003</v>
+      </c>
+      <c r="D21" s="10">
+        <v>10918</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.116231</v>
+      </c>
+      <c r="F21" s="13">
+        <v>3.2498040000000001</v>
+      </c>
+      <c r="G21" s="10">
+        <v>2829</v>
+      </c>
+      <c r="H21" s="12">
+        <v>2796</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6886476E-4E43-3B40-B5A8-A10ED1AEEA3E}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -487,370 +1116,271 @@
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2010</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="7">
         <v>494.17200000000003</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="7">
         <v>848.83</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>3.2705999999999999E-2</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="8">
         <v>-4.7312E-2</v>
       </c>
-      <c r="F2" s="6">
-        <v>8.3238000000000006E-2</v>
-      </c>
-      <c r="G2" s="6">
-        <v>9.1381000000000004E-2</v>
-      </c>
-      <c r="H2" s="4">
-        <v>2134.2190000000001</v>
-      </c>
-      <c r="I2" s="4">
-        <v>6.4569999999999999</v>
-      </c>
-      <c r="J2" s="7">
-        <v>1197.643</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F2" s="4">
+        <v>3543.3090000000002</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <f>A2+1</f>
+        <f t="shared" ref="A3:A11" si="0">A2+1</f>
         <v>2011</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="7">
         <v>552.96124999999995</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="7">
         <v>1002.605</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>8.0647999999999997E-2</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="8">
         <v>5.2925E-2</v>
       </c>
-      <c r="F3" s="6">
-        <v>5.4323999999999997E-2</v>
-      </c>
-      <c r="G3" s="6">
-        <v>9.5992999999999995E-2</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1941.413</v>
-      </c>
-      <c r="I3" s="4">
-        <v>15.518000000000001</v>
-      </c>
-      <c r="J3" s="7">
-        <v>1408.2180000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F3" s="4">
+        <v>3997.93</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <f>A3+1</f>
+        <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="7">
         <v>359.28812499999998</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="7">
         <v>1147.2819999999999</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>6.8044999999999994E-2</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="8">
         <v>8.7660000000000002E-2</v>
       </c>
-      <c r="F4" s="6">
-        <v>8.7430000000000008E-3</v>
-      </c>
-      <c r="G4" s="6">
-        <v>3.5580000000000001E-2</v>
-      </c>
-      <c r="H4" s="4">
-        <v>2053.8159999999998</v>
-      </c>
-      <c r="I4" s="4">
-        <v>25.288</v>
-      </c>
-      <c r="J4" s="7">
-        <v>1575.0039999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F4" s="4">
+        <v>4280.1589999999997</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <f>A4+1</f>
+        <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="7">
         <v>492.49700000000001</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="7">
         <v>1336</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>4.5377000000000001E-2</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="8">
         <v>5.2399000000000001E-2</v>
       </c>
-      <c r="F5" s="6">
-        <v>3.8152999999999999E-2</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0.14071</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1862</v>
-      </c>
-      <c r="I5" s="4">
-        <v>28</v>
-      </c>
-      <c r="J5" s="7">
-        <v>1772</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F5" s="4">
+        <v>4130</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <f>A5+1</f>
+        <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="7">
         <v>543.03</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="7">
         <v>1360</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>6.5647999999999998E-2</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="8">
         <v>5.4059999999999997E-2</v>
       </c>
-      <c r="F6" s="6">
-        <v>7.0754999999999998E-2</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.169428</v>
-      </c>
-      <c r="H6" s="4">
-        <v>2083</v>
-      </c>
-      <c r="I6" s="4">
-        <v>26</v>
-      </c>
-      <c r="J6" s="7">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F6" s="4">
+        <v>4682</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <f>A6+1</f>
+        <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="7">
         <v>975.375</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="7">
         <v>1331</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>7.5319999999999998E-2</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="8">
         <v>5.3883E-2</v>
       </c>
-      <c r="F7" s="6">
-        <v>7.1731000000000003E-2</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.14811199999999999</v>
-      </c>
-      <c r="H7" s="4">
-        <v>2199</v>
-      </c>
-      <c r="I7" s="4">
-        <v>-17</v>
-      </c>
-      <c r="J7" s="7">
-        <v>1933</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F7" s="4">
+        <v>5010</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <f>A7+1</f>
+        <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="7">
         <v>764.375</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="7">
         <v>1463</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>0.14068</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="8">
         <v>0.18715999999999999</v>
       </c>
-      <c r="F8" s="6">
-        <v>0.115651</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0.14588999999999999</v>
-      </c>
-      <c r="H8" s="4">
-        <v>2847</v>
-      </c>
-      <c r="I8" s="4">
-        <v>42</v>
-      </c>
-      <c r="J8" s="7">
-        <v>2126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F8" s="4">
+        <v>6910</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <f>A8+1</f>
+        <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="7">
         <v>1706.125</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="7">
         <v>1797</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>0.190328</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="8">
         <v>0.27542699999999998</v>
       </c>
-      <c r="F9" s="6">
-        <v>0.178115</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0.211982</v>
-      </c>
-      <c r="H9" s="4">
-        <v>3892</v>
-      </c>
-      <c r="I9" s="4">
-        <v>508</v>
-      </c>
-      <c r="J9" s="7">
-        <v>2612</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F9" s="4">
+        <v>9714</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <f>A9+1</f>
+        <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="7">
         <v>1763.25</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="7">
         <v>2376</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>0.19381999999999999</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="8">
         <v>0.32733499999999999</v>
       </c>
-      <c r="F10" s="6">
-        <v>0.231873</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0.25888899999999998</v>
-      </c>
-      <c r="H10" s="4">
-        <v>4545</v>
-      </c>
-      <c r="I10" s="4">
-        <v>70</v>
-      </c>
-      <c r="J10" s="7">
-        <v>3367</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F10" s="4">
+        <v>11716</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <f>A10+1</f>
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="7">
         <v>3188.25</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="7">
         <v>2829</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>0.116231</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="8">
         <v>0.16472000000000001</v>
       </c>
-      <c r="F11" s="6">
-        <v>0.18451999999999999</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.21096300000000001</v>
-      </c>
-      <c r="H11" s="4">
-        <v>4150</v>
-      </c>
-      <c r="I11" s="4">
-        <v>156</v>
-      </c>
-      <c r="J11" s="7">
-        <v>3922</v>
-      </c>
+      <c r="F11" s="4">
+        <v>10918</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
